--- a/tables/wave_pars.xlsx
+++ b/tables/wave_pars.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\docs\CDM-manual\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/Matt Hipsey/GitHub/cdm-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD64C30-C7E3-4A88-8FDA-1594914BBF39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BF4747-1043-0342-A4A5-8177A914F18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2490" windowWidth="21600" windowHeight="11505" xr2:uid="{DECC0CF8-79EF-43B2-948C-02F9DA64B271}"/>
+    <workbookView xWindow="3900" yWindow="4820" windowWidth="19560" windowHeight="16460" activeTab="1" xr2:uid="{DECC0CF8-79EF-43B2-948C-02F9DA64B271}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Parameter</t>
   </si>
@@ -168,6 +169,117 @@
       </rPr>
       <t xml:space="preserve"> $^{d, e}$</t>
     </r>
+  </si>
+  <si>
+    <t>settling sub-model</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ρ_s </t>
+  </si>
+  <si>
+    <t>\Theta_{SS}^{settling}</t>
+  </si>
+  <si>
+    <t>d_s</t>
+  </si>
+  <si>
+    <t>V_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τ_{c,s} </t>
+  </si>
+  <si>
+    <t>f_{s,s}</t>
+  </si>
+  <si>
+    <t>K_{e_s}</t>
+  </si>
+  <si>
+    <t>f_{tss}</t>
+  </si>
+  <si>
+    <t>average particle diameter</t>
+  </si>
+  <si>
+    <t>particle density</t>
+  </si>
+  <si>
+    <t>sedimentation velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resuspension rate </t>
+  </si>
+  <si>
+    <t>critical shear stress for resuspension</t>
+  </si>
+  <si>
+    <t>particle fraction within the sediment</t>
+  </si>
+  <si>
+    <t>specific light attenuation constants for each simulated sediment particle type</t>
+  </si>
+  <si>
+    <t>specific turbidity constants for each sediment particle type</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>m/d</t>
+  </si>
+  <si>
+    <t>g/m^2/s</t>
+  </si>
+  <si>
+    <t>N/m^2</t>
+  </si>
+  <si>
+    <t>w/w</t>
+  </si>
+  <si>
+    <t>NTU/(g/m^3)</t>
+  </si>
+  <si>
+    <t>/m / (g/m^3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 – 1 $^a$ ; 0.002 – 2 $^b$ ; 0 – 0.0013 $^c$ ; 0 – 0.01 $^d$ </t>
+  </si>
+  <si>
+    <t>0.01 – 104 $^a$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.06 $^e$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.825 $^e$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -135.13 $^e$</t>
+  </si>
+  <si>
+    <t>SS1:Clay</t>
+  </si>
+  <si>
+    <t>SS2:Silt</t>
+  </si>
+  <si>
+    <t>SS3:Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ε_ss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 – 0.25 $^a$ ; 0.01 – 1 $^b$ </t>
+  </si>
+  <si>
+    <t>Refer to Table \@ref(tab:dev-zonepars)</t>
   </si>
 </sst>
 </file>
@@ -268,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -282,6 +394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,13 +711,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B82B77B-C9BA-4627-B3DE-F5D84FB8884D}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -624,7 +737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -644,7 +757,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -664,7 +777,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -684,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -708,4 +821,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9092AC5-A5D9-EC4A-8726-15551DC79124}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+      <c r="G4">
+        <v>1600</v>
+      </c>
+      <c r="H4">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>0.02</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>0.05</v>
+      </c>
+      <c r="G7">
+        <v>0.15</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.06</v>
+      </c>
+      <c r="H9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>